--- a/LynxActuator/LynxActuatorBOM.xlsx
+++ b/LynxActuator/LynxActuatorBOM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://modernatherapeutics-my.sharepoint.com/personal/cpark_modernatx_com/Documents/ModernaProjects/LynxActuator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{B7069E77-7A79-4AD0-A220-C7FDDEF1DECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0186C4-8FAE-4A60-9536-D78EB3FBB4BF}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{B7069E77-7A79-4AD0-A220-C7FDDEF1DECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CC024B-F693-4496-88EC-1F48E6D5BE1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9855F9C3-E00D-4D1D-BFD4-3FD0109DBA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,53 +36,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+  <si>
+    <t>Device Name</t>
+  </si>
   <si>
     <t>Part Number</t>
   </si>
   <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t>Tray Lock1</t>
   </si>
   <si>
+    <t>VTUG-10-SH2-S1T-Q6L-UL-Q4S-4J+HW1</t>
+  </si>
+  <si>
+    <t>Festo</t>
+  </si>
+  <si>
     <t>TrayUnlock1</t>
   </si>
   <si>
     <t>TrayLock2</t>
   </si>
   <si>
+    <t>VTUG-10-SH2-S1T-Q6L-UL-Q4S-4J+HW3</t>
+  </si>
+  <si>
     <t>TrayLock3</t>
   </si>
   <si>
+    <t>VTUG-10-SH2-S1T-Q6L-UL-Q4S-4J+HW5</t>
+  </si>
+  <si>
     <t>TrayUnlock3</t>
   </si>
   <si>
     <t>ShuttleLock</t>
   </si>
   <si>
-    <t>VTUG-10-SH2-S1T-Q6L-UL-Q4S-4J+HW1</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Festo</t>
-  </si>
-  <si>
-    <t>VTUG-10-SH2-S1T-Q6L-UL-Q4S-4J+HW3</t>
-  </si>
-  <si>
-    <t>VTUG-10-SH2-S1T-Q6L-UL-Q4S-4J+HW5</t>
-  </si>
-  <si>
     <t>VTUG-10-SH2-S1T-Q6L-UL-Q4S-4J+HW6</t>
   </si>
   <si>
-    <t>Device Name</t>
+    <t>ShuttleUnlock</t>
   </si>
   <si>
     <t>TrayLockSensor1</t>
   </si>
   <si>
+    <t>Sick</t>
+  </si>
+  <si>
     <t>TrayLockSensor2</t>
   </si>
   <si>
@@ -92,6 +104,12 @@
     <t>TrayPresentSensor1</t>
   </si>
   <si>
+    <t>PR-MB30N3</t>
+  </si>
+  <si>
+    <t>Keyence</t>
+  </si>
+  <si>
     <t>TrayPresentSensor2</t>
   </si>
   <si>
@@ -101,21 +119,6 @@
     <t>ShuttleLockSensor</t>
   </si>
   <si>
-    <t>Sick</t>
-  </si>
-  <si>
-    <t>Keyence</t>
-  </si>
-  <si>
-    <t>ShuttleUnlock</t>
-  </si>
-  <si>
-    <t>PR-MB30N3</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>AC Circuit Breaker</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
     <t>Phoenix Contact</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Sensor Terminal</t>
   </si>
   <si>
@@ -137,10 +137,7 @@
     <t>24V Power Supply</t>
   </si>
   <si>
-    <t>S8VS-12024B</t>
-  </si>
-  <si>
-    <t>Omron Automation and Safety</t>
+    <t>PS-EE-2G/1AC/24DC/60W/SC</t>
   </si>
   <si>
     <t>AC Terminal Block</t>
@@ -164,12 +161,12 @@
     <t>Power4Hub</t>
   </si>
   <si>
+    <t>Controller</t>
+  </si>
+  <si>
     <t>ClearCore</t>
   </si>
   <si>
-    <t>Controller</t>
-  </si>
-  <si>
     <t>IO Expansion</t>
   </si>
   <si>
@@ -186,13 +183,64 @@
   </si>
   <si>
     <t>24V Power Distribution Blocks</t>
+  </si>
+  <si>
+    <t>2-Pole Contactor</t>
+  </si>
+  <si>
+    <t>22.32.0.024.1320</t>
+  </si>
+  <si>
+    <t>Finder</t>
+  </si>
+  <si>
+    <t>POWER4-Hub Signal Power Cable</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>DC Power Cable, IPC to ClearPath, 10 ft</t>
+  </si>
+  <si>
+    <t>CPM-CABLE-PWR-MS120</t>
+  </si>
+  <si>
+    <t>DC Power Cable, IPC to POWER4-HUB, 6 ft</t>
+  </si>
+  <si>
+    <t>PC-SBR-72</t>
+  </si>
+  <si>
+    <t>AC Power Cable for IPC-3 and IPC-5</t>
+  </si>
+  <si>
+    <t>IPC35-CABLE110</t>
+  </si>
+  <si>
+    <t>PTTB 2,5 - Double-level terminal block</t>
+  </si>
+  <si>
+    <t>Terminal Block Connector 2 Position Feed Through Gray 12-26 AWG</t>
+  </si>
+  <si>
+    <t>Sensor Terminals &amp; Distribution Block</t>
+  </si>
+  <si>
+    <t>MWI-MIL40-ECON16-R</t>
+  </si>
+  <si>
+    <t>Misumi</t>
+  </si>
+  <si>
+    <t>MIL40 Wire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +255,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -236,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +309,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -260,10 +332,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,16 +651,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B211576-74E0-4B5C-816A-8267356B2224}">
-  <dimension ref="B3:F34"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
@@ -600,407 +668,497 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1083713</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1083713</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1083713</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1083713</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1083713</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1083713</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1083713</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2903793</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>1083713</v>
+        <v>2908262</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3210538</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2903793</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1032919</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2908262</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3210567</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3273110</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3210538</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2153261022</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3210567</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1032919</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3209510</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2288998</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3210567</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3273110</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{DA785B7E-2798-40D0-9701-3CAB4A41DCC6}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{6567508A-9D59-4808-9B4C-7874E8D904B1}"/>
-    <hyperlink ref="E22" r:id="rId3" xr:uid="{D5D32D06-DB19-4D50-8265-2BD386A63B6C}"/>
-    <hyperlink ref="E23" r:id="rId4" xr:uid="{EF2FBE20-F4DF-4506-BD01-4A3AA175D17E}"/>
-    <hyperlink ref="E24" r:id="rId5" xr:uid="{22F0C9B7-8839-45EB-A68E-22FA4B6C430E}"/>
-    <hyperlink ref="E25" r:id="rId6" xr:uid="{A71F38DF-0F6E-4612-867F-E458969BEA1A}"/>
-    <hyperlink ref="E26" r:id="rId7" xr:uid="{0A43E950-863D-45A9-B336-2012B8843571}"/>
-    <hyperlink ref="E27" r:id="rId8" xr:uid="{3C86E5AB-0FAF-4763-BD11-8D2E0F62C569}"/>
-    <hyperlink ref="E28" r:id="rId9" location="system-components_accordion" xr:uid="{5D69F793-B8AE-4C4B-9A93-F0C64B0755FF}"/>
-    <hyperlink ref="E29" r:id="rId10" xr:uid="{79F1D604-E051-4016-9980-210121657498}"/>
-    <hyperlink ref="E30" r:id="rId11" xr:uid="{4D48330F-F49C-4180-A569-7584F661B30B}"/>
-    <hyperlink ref="E31" r:id="rId12" xr:uid="{BEB7490A-091B-4104-A067-973ED03C2699}"/>
-    <hyperlink ref="E32" r:id="rId13" xr:uid="{54ADF6AE-C475-41E8-B4B6-61416D5D9731}"/>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{DA785B7E-2798-40D0-9701-3CAB4A41DCC6}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{6567508A-9D59-4808-9B4C-7874E8D904B1}"/>
+    <hyperlink ref="E19" r:id="rId3" xr:uid="{D5D32D06-DB19-4D50-8265-2BD386A63B6C}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{EF2FBE20-F4DF-4506-BD01-4A3AA175D17E}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{22F0C9B7-8839-45EB-A68E-22FA4B6C430E}"/>
+    <hyperlink ref="E22" r:id="rId6" xr:uid="{A71F38DF-0F6E-4612-867F-E458969BEA1A}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{0A43E950-863D-45A9-B336-2012B8843571}"/>
+    <hyperlink ref="E24" r:id="rId8" xr:uid="{3C86E5AB-0FAF-4763-BD11-8D2E0F62C569}"/>
+    <hyperlink ref="E25" r:id="rId9" location="system-components_accordion" xr:uid="{5D69F793-B8AE-4C4B-9A93-F0C64B0755FF}"/>
+    <hyperlink ref="E26" r:id="rId10" xr:uid="{79F1D604-E051-4016-9980-210121657498}"/>
+    <hyperlink ref="E27" r:id="rId11" xr:uid="{4D48330F-F49C-4180-A569-7584F661B30B}"/>
+    <hyperlink ref="E28" r:id="rId12" xr:uid="{BEB7490A-091B-4104-A067-973ED03C2699}"/>
+    <hyperlink ref="E29" r:id="rId13" xr:uid="{54ADF6AE-C475-41E8-B4B6-61416D5D9731}"/>
+    <hyperlink ref="E30" r:id="rId14" xr:uid="{2D9699C4-759E-4F8D-BCB6-7D1CB7FA334C}"/>
+    <hyperlink ref="E31" r:id="rId15" xr:uid="{66D02B32-2471-4773-B590-4156FEC6646D}"/>
+    <hyperlink ref="E32:E34" r:id="rId16" display="Link" xr:uid="{355E4875-C1A1-4EE9-A0D0-9F05C90A7023}"/>
+    <hyperlink ref="E35" r:id="rId17" xr:uid="{32307721-82FF-4152-9F7D-CC9EAAFE54FA}"/>
+    <hyperlink ref="E36" r:id="rId18" xr:uid="{25D6764A-C7DC-4E69-883E-7DE6F49651DF}"/>
+    <hyperlink ref="E37" r:id="rId19" xr:uid="{A39880FF-CE7F-4C7F-A48C-9140B5AF9C30}"/>
+    <hyperlink ref="E38" r:id="rId20" xr:uid="{39958BBC-22AC-423F-A247-EECD1A983AAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
